--- a/!/tb_harga.xlsx
+++ b/!/tb_harga.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="semua" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="non_nakes" sheetId="5" r:id="rId5"/>
     <sheet name="lainnya" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="43">
   <si>
     <t>Institusional Fee</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Untuk Keselamatan Kerja (Handrub, tisue, sabun)</t>
-  </si>
-  <si>
-    <t>Per siswa/ periode</t>
   </si>
   <si>
     <t>Orientasi Keselamatan Pasien</t>
@@ -128,9 +125,6 @@
     <t>Ruang Kelas / Ruang Diskusi</t>
   </si>
   <si>
-    <t>Per Siswa / Hari</t>
-  </si>
-  <si>
     <t>Mess Praktikan (3x Makan)</t>
   </si>
   <si>
@@ -158,7 +152,7 @@
     <t>Praktik Kerja Lapangan (PKL)</t>
   </si>
   <si>
-    <t>Per Minggu/orang</t>
+    <t>Per minggu/orang</t>
   </si>
 </sst>
 </file>
@@ -992,8 +986,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:B324"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1183,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1218,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1253,10 +1247,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
       <c r="D8">
         <v>37500</v>
@@ -1288,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>37500</v>
@@ -1323,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>37500</v>
@@ -1358,10 +1352,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>37500</v>
@@ -1393,10 +1387,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>37500</v>
@@ -1428,10 +1422,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>37500</v>
@@ -1463,10 +1457,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>150000</v>
@@ -1498,10 +1492,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>150000</v>
@@ -1533,10 +1527,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>20000</v>
@@ -1568,10 +1562,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>100000</v>
@@ -1708,10 +1702,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2">
         <v>75000</v>
@@ -1743,10 +1737,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
       </c>
       <c r="D22" s="2">
         <v>150000</v>
@@ -1778,7 +1772,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1813,7 +1807,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1848,10 +1842,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2">
         <v>150000</v>
@@ -1883,10 +1877,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2">
         <v>150000</v>
@@ -1918,10 +1912,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2">
         <v>150000</v>
@@ -1953,10 +1947,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>20000</v>
@@ -1988,10 +1982,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
         <v>100000</v>
@@ -2023,10 +2017,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>150000</v>
@@ -2058,10 +2052,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>20000</v>
@@ -2166,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>20000</v>
@@ -2198,10 +2192,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D35">
         <v>75000</v>
@@ -2233,10 +2227,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
         <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
       </c>
       <c r="D36">
         <v>150000</v>
@@ -2268,7 +2262,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -2303,7 +2297,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -2338,10 +2332,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39">
         <v>150000</v>
@@ -2373,10 +2367,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40">
         <v>150000</v>
@@ -2408,10 +2402,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41">
         <v>150000</v>
@@ -2443,10 +2437,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
         <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
       </c>
       <c r="D42">
         <v>20000</v>
@@ -2478,10 +2472,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>100000</v>
@@ -2513,10 +2507,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
         <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
       </c>
       <c r="D44">
         <v>150000</v>
@@ -2548,10 +2542,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>20000</v>
@@ -2656,7 +2650,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>20000</v>
@@ -2688,10 +2682,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D49">
         <v>75000</v>
@@ -2723,10 +2717,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D50">
         <v>150000</v>
@@ -2758,7 +2752,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -2793,7 +2787,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -2828,10 +2822,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53">
         <v>150000</v>
@@ -2863,10 +2857,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54">
         <v>150000</v>
@@ -2898,10 +2892,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>150000</v>
@@ -2933,10 +2927,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
         <v>27</v>
-      </c>
-      <c r="C56" t="s">
-        <v>28</v>
       </c>
       <c r="D56">
         <v>20000</v>
@@ -2968,10 +2962,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>100000</v>
@@ -3003,10 +2997,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
         <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>31</v>
       </c>
       <c r="D58">
         <v>150000</v>
@@ -3038,10 +3032,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59">
         <v>20000</v>
@@ -3073,10 +3067,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>50000</v>
@@ -3088,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3108,10 +3102,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>75000</v>
@@ -3123,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3143,10 +3137,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>75000</v>
@@ -3158,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3178,10 +3172,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>75000</v>
@@ -3196,7 +3190,7 @@
         <v>10</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -3213,10 +3207,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D64">
         <v>100000</v>
@@ -3248,10 +3242,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D65">
         <v>20000</v>
@@ -3283,10 +3277,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D66">
         <v>750000</v>
@@ -3318,10 +3312,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D67">
         <v>500000</v>
@@ -3353,10 +3347,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D68">
         <v>30000</v>
@@ -3388,10 +3382,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D69">
         <v>750000</v>
@@ -3423,10 +3417,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D70">
         <v>1000000</v>
@@ -3458,10 +3452,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D71">
         <v>100000</v>
@@ -3493,10 +3487,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D72">
         <v>100000</v>
@@ -3528,10 +3522,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D73">
         <v>100000</v>
@@ -3563,10 +3557,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D74">
         <v>200000</v>
@@ -3598,10 +3592,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D75">
         <v>200000</v>
@@ -3633,10 +3627,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D76">
         <v>200000</v>
@@ -3668,10 +3662,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D77">
         <v>250000</v>
@@ -3703,10 +3697,10 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D78">
         <v>250000</v>
@@ -3738,10 +3732,10 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D79">
         <v>350000</v>
@@ -3773,10 +3767,10 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D80">
         <v>350000</v>
@@ -3808,10 +3802,10 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D81">
         <v>250000</v>
@@ -3855,6 +3849,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3987,7 +3982,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4019,7 +4014,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4051,7 +4046,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4083,10 +4078,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
       </c>
       <c r="C8">
         <v>37500</v>
@@ -4115,10 +4110,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>37500</v>
@@ -4147,10 +4142,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>37500</v>
@@ -4179,10 +4174,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>37500</v>
@@ -4211,10 +4206,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>37500</v>
@@ -4243,10 +4238,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>37500</v>
@@ -4275,10 +4270,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>150000</v>
@@ -4307,10 +4302,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>150000</v>
@@ -4339,10 +4334,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>20000</v>
@@ -4371,10 +4366,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>100000</v>
@@ -4518,10 +4513,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>75000</v>
@@ -4550,10 +4545,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>150000</v>
@@ -4582,7 +4577,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4614,7 +4609,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4646,10 +4641,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>150000</v>
@@ -4678,10 +4673,10 @@
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>150000</v>
@@ -4710,10 +4705,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>150000</v>
@@ -4742,10 +4737,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>20000</v>
@@ -4774,10 +4769,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>100000</v>
@@ -4806,10 +4801,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>150000</v>
@@ -4838,10 +4833,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>20000</v>
@@ -4884,6 +4879,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4955,7 +4951,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>20000</v>
@@ -4984,10 +4980,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>75000</v>
@@ -5016,10 +5012,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
       <c r="C5">
         <v>150000</v>
@@ -5048,7 +5044,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5080,7 +5076,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5112,10 +5108,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>150000</v>
@@ -5144,10 +5140,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>150000</v>
@@ -5176,10 +5172,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>150000</v>
@@ -5208,10 +5204,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
       <c r="C11">
         <v>20000</v>
@@ -5240,10 +5236,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -5272,10 +5268,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13">
         <v>150000</v>
@@ -5304,10 +5300,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>20000</v>
@@ -5422,7 +5418,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>20000</v>
@@ -5451,10 +5447,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>75000</v>
@@ -5483,10 +5479,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>150000</v>
@@ -5515,7 +5511,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5547,7 +5543,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5579,10 +5575,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>150000</v>
@@ -5611,10 +5607,10 @@
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>150000</v>
@@ -5643,10 +5639,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>150000</v>
@@ -5675,10 +5671,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
       <c r="C11">
         <v>20000</v>
@@ -5707,10 +5703,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -5739,10 +5735,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13">
         <v>150000</v>
@@ -5771,10 +5767,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>20000</v>
@@ -5810,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5822,10 +5818,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1">
         <v>50000</v>
@@ -5837,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -5854,10 +5850,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>75000</v>
@@ -5869,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -5886,10 +5882,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>75000</v>
@@ -5901,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5918,10 +5914,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>75000</v>
@@ -5936,7 +5932,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -5950,10 +5946,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>100000</v>
@@ -5982,10 +5978,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>20000</v>
@@ -6014,10 +6010,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>750000</v>
@@ -6046,10 +6042,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>500000</v>
@@ -6078,10 +6074,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>30000</v>
@@ -6110,10 +6106,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>750000</v>
@@ -6142,10 +6138,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>1000000</v>
@@ -6174,10 +6170,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -6206,10 +6202,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>100000</v>
@@ -6238,10 +6234,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>100000</v>
@@ -6270,10 +6266,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>200000</v>
@@ -6302,10 +6298,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>200000</v>
@@ -6334,10 +6330,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>200000</v>
@@ -6366,10 +6362,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>250000</v>
@@ -6398,10 +6394,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>250000</v>
@@ -6430,10 +6426,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>350000</v>
@@ -6462,10 +6458,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>350000</v>
@@ -6494,10 +6490,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>250000</v>

--- a/!/tb_harga.xlsx
+++ b/!/tb_harga.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="semua" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,13 +4062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="84.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
@@ -4678,7 +4676,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C14"/>
+      <selection activeCell="A10" sqref="A10:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6207,8 +6205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
